--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/104.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/104.xlsx
@@ -479,13 +479,13 @@
         <v>-9.247929071434713</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.424114054319313</v>
+        <v>-8.43941895634129</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.212955386267524</v>
+        <v>-2.202258974845834</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.970786701716791</v>
+        <v>-5.954159477107798</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.646461984002659</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.117940643416587</v>
+        <v>-9.132630207205002</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.128261279184398</v>
+        <v>-2.116687683472312</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.891460438798773</v>
+        <v>-5.874623737344312</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.936653496031589</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.690886000376203</v>
+        <v>-9.706465840757856</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.221543936931697</v>
+        <v>-2.210454756424755</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.748741245521116</v>
+        <v>-5.72995379094324</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.09755841175968</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.3455927885824</v>
+        <v>-10.36051801382197</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.121859143094794</v>
+        <v>-2.111123454764579</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.615697264043496</v>
+        <v>-5.60184560763695</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.18063407049196</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.0223601070769</v>
+        <v>-11.0373900707392</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.245947989428674</v>
+        <v>-2.236220408417271</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.164418677392041</v>
+        <v>-5.148354421805243</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.20865640119033</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.53252787191044</v>
+        <v>-11.54653663595109</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.027673116451417</v>
+        <v>-2.016034059225122</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.064262560652836</v>
+        <v>-5.049546812258736</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.21487401447593</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.14768281323178</v>
+        <v>-12.1623723770202</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.879926478882538</v>
+        <v>-1.869347898186424</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.635633657917566</v>
+        <v>-4.623654200817387</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.22280688663541</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.75642252616068</v>
+        <v>-12.77194999733097</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.801490492557757</v>
+        <v>-1.790414404353657</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.053903365751152</v>
+        <v>-4.042473785370325</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.24028924633926</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.37958995682115</v>
+        <v>-13.39444972054651</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.713366202130099</v>
+        <v>-1.704738374557402</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.693406807004225</v>
+        <v>-3.679633704414729</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.27040386586567</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.24122059144083</v>
+        <v>-14.25558284765821</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.543559034272912</v>
+        <v>-1.534263499255287</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.180921704567699</v>
+        <v>-3.170487139202844</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.31186303344231</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.89650344097206</v>
+        <v>-14.91031582047008</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.406377885097306</v>
+        <v>-1.397134719291048</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.754426847195631</v>
+        <v>-2.745628819685991</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.34621621391576</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.63972728869117</v>
+        <v>-15.65168056118566</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.249414266327852</v>
+        <v>-1.238390547335119</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.149601732816412</v>
+        <v>-2.141641612688642</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.36063259937224</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.29544218421618</v>
+        <v>-16.30599458030661</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.030458593602826</v>
+        <v>-1.020154951266387</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.442224610277952</v>
+        <v>-1.436267612484967</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.33685440042635</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.93447748592083</v>
+        <v>-16.94505606661694</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8126157666193456</v>
+        <v>-0.7999293251657131</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.273045872957168</v>
+        <v>-1.264889368286773</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.24678281219557</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.79470724413644</v>
+        <v>-17.8030732256523</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6258933434906485</v>
+        <v>-0.6130367021000735</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7488824363858232</v>
+        <v>-0.7413150853433055</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.07388098447184</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.65709723232093</v>
+        <v>-18.66764962841136</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3155010277190069</v>
+        <v>-0.3042678318808059</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5304111788659402</v>
+        <v>-0.5245327348900053</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.799017985516727</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.41086038382763</v>
+        <v>-19.41982861127421</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1844732608790124</v>
+        <v>-0.1743398184795164</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1184356853453461</v>
+        <v>-0.112609610580778</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.403902284769888</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.083254873173</v>
+        <v>-20.09248494667641</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05054666743281227</v>
+        <v>0.05982911014759605</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02855159865871247</v>
+        <v>0.03336956610446767</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.89125253043048</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.58577673314697</v>
+        <v>-20.59152425409448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1511086455601102</v>
+        <v>0.1583225044259013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2798583517056444</v>
+        <v>0.2840609809178384</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.266218595389146</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.2322746474714</v>
+        <v>-21.2380483530246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3985269846630494</v>
+        <v>0.4046934593015024</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4278406507256741</v>
+        <v>0.4321218337549185</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.540409567505802</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.65384679897498</v>
+        <v>-21.66066788875552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5142498494810661</v>
+        <v>0.5194736783149149</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5989963257755589</v>
+        <v>0.6062756461555587</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.746011180197579</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.03569690365676</v>
+        <v>-22.03917945621266</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6569035812445134</v>
+        <v>0.6612502257879664</v>
       </c>
       <c r="G23" t="n">
-        <v>0.63632248117732</v>
+        <v>0.6426984326612406</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.911635927261038</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.33949069879618</v>
+        <v>-22.34083920598887</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8439533119442537</v>
+        <v>0.8478155412825629</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7768683521832493</v>
+        <v>0.7857842104184648</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.067230686133571</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.49074607352664</v>
+        <v>-22.49020928911013</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8598866445026344</v>
+        <v>0.8611696901811235</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8852071581985326</v>
+        <v>0.8927352323325251</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.253177309814718</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.7169941589345</v>
+        <v>-22.71445425218321</v>
       </c>
       <c r="F26" t="n">
-        <v>1.023605891538419</v>
+        <v>1.02422122977198</v>
       </c>
       <c r="G26" t="n">
-        <v>0.679147403772606</v>
+        <v>0.6889797232067423</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.496146703239341</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.58943585234757</v>
+        <v>-22.5870923301389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9862273669252909</v>
+        <v>0.9862011823196075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.565872799585992</v>
+        <v>0.5749588577581499</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.815999380841328</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.69562752069681</v>
+        <v>-22.69283886019152</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9817628916562623</v>
+        <v>0.9823258606784565</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1209832567212985</v>
+        <v>0.1339708211402908</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.234696220558776</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.43493358651236</v>
+        <v>-22.43337560247419</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9455757666017315</v>
+        <v>0.9473563197882062</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.10716321259862</v>
+        <v>-0.09562889379505929</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.756540019647287</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.28005164389474</v>
+        <v>-22.27834964452531</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8786348221719861</v>
+        <v>0.8804153753584608</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5766008232915498</v>
+        <v>-0.5635870742668742</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.378191940661573</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.82356232071227</v>
+        <v>-21.81966081446544</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8720755784482813</v>
+        <v>0.8733717164296122</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8654301162828686</v>
+        <v>-0.8533851976684806</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.097052142326311</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.3594140003674</v>
+        <v>-21.35358792560283</v>
       </c>
       <c r="F32" t="n">
-        <v>0.816551122096521</v>
+        <v>0.8185411521284635</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.285103883874398</v>
+        <v>-1.27275784229465</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.8977360760119518</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.14247454228</v>
+        <v>-21.13925383578094</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7189349121086115</v>
+        <v>0.722116341699151</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.697720900234237</v>
+        <v>-1.684131089884525</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.7638819010243583</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.65286169290797</v>
+        <v>-20.64837103303326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6697994995436136</v>
+        <v>0.6737664673046566</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.073155776523573</v>
+        <v>-2.061621457720013</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.6843350881253035</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.26450471371385</v>
+        <v>-20.26116617648921</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6173648266625007</v>
+        <v>0.6223922709537235</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.277277870128924</v>
+        <v>-2.262470475614932</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6439767560889</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.70840915051154</v>
+        <v>-19.70470402880733</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6343324511453776</v>
+        <v>0.6393729877394422</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.597162105460817</v>
+        <v>-2.584043618013408</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6302956045383822</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.33679722665198</v>
+        <v>-19.33187452078349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5543122961767479</v>
+        <v>0.5597979710674311</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.825648974654621</v>
+        <v>-2.81441577881642</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.6361184296968483</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.63490577900421</v>
+        <v>-18.629380827205</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7254025097124241</v>
+        <v>0.7322497840986469</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.895614241040805</v>
+        <v>-2.884590522048072</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.6553437489761407</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.16864959790182</v>
+        <v>-18.16676430629261</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8166820451249384</v>
+        <v>0.8242624884702977</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.827455712446779</v>
+        <v>-2.813813532885701</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.6854507214265022</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.57249158800382</v>
+        <v>-17.56993858894969</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7074136856078925</v>
+        <v>0.7146406367765253</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.884184660659978</v>
+        <v>-2.870136619710806</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.7280161860769468</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.02292908391953</v>
+        <v>-17.01953817748352</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8612482439981739</v>
+        <v>0.8703473944731734</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.041580325423209</v>
+        <v>-3.029849622077022</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.7876637003940885</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.37463752410578</v>
+        <v>-16.37186195590333</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8380879602711605</v>
+        <v>0.8484963410303327</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.190740931698994</v>
+        <v>-3.176928552200973</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8692409523912034</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.8092987950972</v>
+        <v>-15.80830378008123</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8660400268382457</v>
+        <v>0.8750606234961948</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.203492834666835</v>
+        <v>-3.1903350703109</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.9783869564351408</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.22165078204633</v>
+        <v>-15.21968693662007</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9394223842661202</v>
+        <v>0.9513756567606161</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.355559932173483</v>
+        <v>-3.346120381824599</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.122310952405296</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.7007866057911</v>
+        <v>-14.70121865178488</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9099516105693949</v>
+        <v>0.9205956527797181</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.449523389668551</v>
+        <v>-3.441812023294775</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.304249892413998</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.2309824106186</v>
+        <v>-14.23176794878911</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7216319264940071</v>
+        <v>0.7323676148242224</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.477868225320888</v>
+        <v>-3.469659351439126</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.526313802328107</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.45591808238842</v>
+        <v>-13.45815686617435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7716576156522423</v>
+        <v>0.7834145036041124</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.353177133056289</v>
+        <v>-3.346774996966685</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.791864877727212</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.88306437154869</v>
+        <v>-12.88557809369431</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6979348583504829</v>
+        <v>0.7084217929267055</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.380526953692655</v>
+        <v>-3.370969572618195</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.097870554464187</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.46345606547137</v>
+        <v>-12.46798600225461</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6601373800464198</v>
+        <v>0.6717109757585056</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.505977399522074</v>
+        <v>-3.499182494347219</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.440484401319803</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.91373645375298</v>
+        <v>-11.91851514429021</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6108317675444793</v>
+        <v>0.6221566095025725</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.649010808067931</v>
+        <v>-3.643786979234083</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.818142371533745</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.43492475422537</v>
+        <v>-11.44119596728656</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6169720575772489</v>
+        <v>0.6279564996614571</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.82269329756627</v>
+        <v>-3.817443284126737</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.2229247600214</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.96925772675086</v>
+        <v>-10.97611809343993</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5617618164936901</v>
+        <v>0.5724844125210637</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.881870506410871</v>
+        <v>-3.875821862497994</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.647676606349931</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.37380670120632</v>
+        <v>-10.37851993022934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5407617627355614</v>
+        <v>0.5507773744094819</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.035443218744318</v>
+        <v>-4.030324128333203</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.088145963853028</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.936288124841516</v>
+        <v>-9.941970184274826</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5292929054462094</v>
+        <v>0.5393739786343384</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.108550637812517</v>
+        <v>-4.101624809609244</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.533442404088953</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.452082396543119</v>
+        <v>-9.455080533893874</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4410245996872922</v>
+        <v>0.4507783653043782</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.229353316133123</v>
+        <v>-4.220948057708735</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.974766896967522</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.110438753888277</v>
+        <v>-9.116932536097773</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4060288741913585</v>
+        <v>0.4164765318590559</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.488790389244767</v>
+        <v>-4.479612684952716</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.406085208628338</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.592926207160529</v>
+        <v>-8.599158143313192</v>
       </c>
       <c r="F57" t="n">
-        <v>0.376322439043482</v>
+        <v>0.3865213429571867</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.474611425267177</v>
+        <v>-4.464072121479588</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.815581036956897</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.475881019755498</v>
+        <v>-8.485791893006684</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3306172098230163</v>
+        <v>0.3417980364498504</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.539680170390556</v>
+        <v>-4.529913312470629</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.195195498488552</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.92620068494563</v>
+        <v>-7.936556696493435</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3330785627572608</v>
+        <v>0.3440499125386273</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.774804837125115</v>
+        <v>-4.765679502044431</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.539169396474864</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.828728490288979</v>
+        <v>-7.840760316600525</v>
       </c>
       <c r="F60" t="n">
-        <v>0.441705399435062</v>
+        <v>0.4542871024659608</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.831677800669572</v>
+        <v>-4.824031895810005</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.837397696204995</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.49507115236759</v>
+        <v>-7.506540009656942</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3981734924863228</v>
+        <v>0.4091841191762144</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.941941175202589</v>
+        <v>-4.934858239365216</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.084733697854272</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.207485628146235</v>
+        <v>-7.219792392817458</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3702607028277629</v>
+        <v>0.3816379139972228</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.131818843316142</v>
+        <v>-5.125141768866862</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.277416354233385</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.02525386489225</v>
+        <v>-7.037495168049264</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3345187160698507</v>
+        <v>0.3470611421922243</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.075037525891577</v>
+        <v>-5.071096742736217</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.409720331585019</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.802881101125533</v>
+        <v>-6.816863680560497</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1310512376065859</v>
+        <v>0.1444970326250385</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.061316792513447</v>
+        <v>-5.058763793459311</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.481714548733137</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.747134075625463</v>
+        <v>-6.759794332473412</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04866137582360371</v>
+        <v>0.06047063298684063</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.122156723818948</v>
+        <v>-5.118255217572115</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.493379691139502</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.479265559483748</v>
+        <v>-6.490891524407201</v>
       </c>
       <c r="F66" t="n">
-        <v>0.08585660819694747</v>
+        <v>0.09893581873583182</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.092018242677296</v>
+        <v>-5.08757995201395</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.444842462087461</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.358790188734185</v>
+        <v>-6.371620645519076</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.04646729662437789</v>
+        <v>-0.03235379416099719</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.041940184307693</v>
+        <v>-5.039675215916074</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.340814709655263</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.142976668691172</v>
+        <v>-6.157050894246027</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.0820259911425059</v>
+        <v>-0.06754590419955686</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.026137774777729</v>
+        <v>-5.023375298878126</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.183738189754531</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.164448045351603</v>
+        <v>-6.178679378540559</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1609987618837976</v>
+        <v>-0.1463222903982226</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.915756569519138</v>
+        <v>-4.913635616458778</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.978222724065823</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.298473949542353</v>
+        <v>-6.313752666958647</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2009171932482203</v>
+        <v>-0.1853635374722498</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.847886071587629</v>
+        <v>-4.845555641681802</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.731769042876635</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.319578741723215</v>
+        <v>-6.334490874659941</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.200026916654983</v>
+        <v>-0.1843292455477534</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.784728802679143</v>
+        <v>-4.784192018262632</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.447065107297246</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.424618287422383</v>
+        <v>-6.440918204460332</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3048177086001584</v>
+        <v>-0.2890938528872454</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.664541462592098</v>
+        <v>-4.663585724484651</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.130110915417438</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.528322418231696</v>
+        <v>-6.542187166941083</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3053675853195109</v>
+        <v>-0.2892771451270296</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.4191131535211</v>
+        <v>-4.417934846265346</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.787427373848858</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.810252067625425</v>
+        <v>-6.82698403065715</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3126076287909854</v>
+        <v>-0.2967397577468134</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.125400431569818</v>
+        <v>-4.125531354598235</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.419882275615762</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.052642962437141</v>
+        <v>-7.067136141682932</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4476154556948646</v>
+        <v>-0.4319832461018437</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.862991405713102</v>
+        <v>-3.863632928552347</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.03381634133531</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.32873344476346</v>
+        <v>-7.342179239781913</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5428357742627383</v>
+        <v>-0.5285782564680986</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.504144477124233</v>
+        <v>-3.505427522802722</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.634525988303884</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.836937364170741</v>
+        <v>-7.84921794423628</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4242849720309088</v>
+        <v>-0.4096215928481756</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.382045660822295</v>
+        <v>-3.383459629529201</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.221420375801481</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.233634140275042</v>
+        <v>-8.246621704694034</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5098169864959051</v>
+        <v>-0.4966199452314453</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.39262424151841</v>
+        <v>-3.395098686755496</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.801232291526706</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.700125982828583</v>
+        <v>-8.713728885481135</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5522098630974142</v>
+        <v>-0.5391830217698967</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.126549370866011</v>
+        <v>-3.126850493831371</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.378422179017954</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.278124968685106</v>
+        <v>-9.290732856321688</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6174095312492101</v>
+        <v>-0.6056919202058652</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.756665630981566</v>
+        <v>-2.756534707953149</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.95264058480679</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.853165094099397</v>
+        <v>-9.86448993605749</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6344164326406122</v>
+        <v>-0.6224893447517997</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.595499382999918</v>
+        <v>-2.595682675239702</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.531499070877277</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.75529022140853</v>
+        <v>-10.76509635623698</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6287081886016196</v>
+        <v>-0.6168727468326992</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.205309481407956</v>
+        <v>-2.205060727653963</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.11896519759765</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.57065265778555</v>
+        <v>-11.57696314775526</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6938685798448903</v>
+        <v>-0.6825961070981641</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.982635594675879</v>
+        <v>-1.979375611268289</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.714977295590015</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.52128476712328</v>
+        <v>-12.5278178262413</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5995647224759374</v>
+        <v>-0.5876638191928084</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.751923033998982</v>
+        <v>-1.749317665733479</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.32745988707187</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.69004773410701</v>
+        <v>-13.69621420874546</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6965525019274441</v>
+        <v>-0.6838791527766532</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.592786092957802</v>
+        <v>-1.592484969992442</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.9604271736788212</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.81114162644401</v>
+        <v>-14.81675822436311</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7538313268599957</v>
+        <v>-0.7420351619996004</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.33548306520936</v>
+        <v>-1.332327820224504</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6151461889876847</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.9447517602977</v>
+        <v>-15.94905912793263</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.776376272353448</v>
+        <v>-0.7651954457266139</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.252923003489435</v>
+        <v>-1.251351927148428</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2995330819934076</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.28916106220603</v>
+        <v>-17.29122964605502</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9580188819795554</v>
+        <v>-0.9474141166777573</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.095802277085881</v>
+        <v>-1.093380201060161</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01765277239626743</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78765367625862</v>
+        <v>-18.78722163026485</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.971949092203152</v>
+        <v>-0.9622738804031163</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.13425437053203</v>
+        <v>-1.132774940310915</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2284116166516512</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.35130668155449</v>
+        <v>-20.34943448224813</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.053435585090055</v>
+        <v>-1.043223588873509</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.065428134493076</v>
+        <v>-1.061880120422968</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4320612620469063</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99939194787666</v>
+        <v>-21.99696987185094</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.165741358866381</v>
+        <v>-1.15655056227149</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.079449990836565</v>
+        <v>-1.074396361939658</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.5901557820745309</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.65230827394742</v>
+        <v>-23.65075028990925</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.300958662615728</v>
+        <v>-1.292540311888498</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.269275289738751</v>
+        <v>-1.263737245636701</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.701596263931607</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70777363549272</v>
+        <v>-25.70629420527161</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.319602101862346</v>
+        <v>-1.310110182302095</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.503130003097662</v>
+        <v>-1.498010912686547</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.7633854590006843</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.69885105166242</v>
+        <v>-27.69915217462778</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.323307223566554</v>
+        <v>-1.313592734857994</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.481134934323562</v>
+        <v>-1.475662351735721</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.7767241089229131</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.01604463931668</v>
+        <v>-30.01645050070477</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.636920245837261</v>
+        <v>-1.626983187980391</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.72672035102866</v>
+        <v>-1.721928568188588</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.7424992876615422</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.1453113119808</v>
+        <v>-32.14571717336889</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.647289349687908</v>
+        <v>-1.635964507729815</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.007314585532533</v>
+        <v>-2.000532772660519</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.6668353823020547</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52330555403203</v>
+        <v>-34.52397326147695</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.785897559873262</v>
+        <v>-1.776444917221535</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.164474588844612</v>
+        <v>-2.158295021903318</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.5498554223233426</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.60640876687622</v>
+        <v>-36.60643495148191</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.0073669547439</v>
+        <v>-1.996618174110843</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.401117962708811</v>
+        <v>-2.393026919552625</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.408249467230265</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.90554806891173</v>
+        <v>-38.90556116121458</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.058806612609041</v>
+        <v>-2.050244246550553</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.657884206040743</v>
+        <v>-2.651612992979556</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2354631234485327</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.24002349631707</v>
+        <v>-41.2411625266643</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.462520863036507</v>
+        <v>-2.455018973508198</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.83656795522462</v>
+        <v>-2.830087265317966</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.06290868647149811</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.59166293274791</v>
+        <v>-43.59280196309513</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.63252441543632</v>
+        <v>-2.626868540608694</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.022531024788497</v>
+        <v>-3.01694061147508</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.141004967068103</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.93395446494975</v>
+        <v>-45.93479237233162</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.952827604459148</v>
+        <v>-2.947826344773608</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.36774886611913</v>
+        <v>-3.36403065211208</v>
       </c>
     </row>
   </sheetData>
